--- a/biology/Botanique/Colpomenia/Colpomenia.xlsx
+++ b/biology/Botanique/Colpomenia/Colpomenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colpomenia est un genre d'algues brunes de la famille des Scytosiphonaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (31 oct. 2012)[1] et World Register of Marine Species                               (31 oct. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (31 oct. 2012) et World Register of Marine Species                               (31 oct. 2012) :
 Colpomenia bullosa (D.A.Saunders) Yamada, 1948
 Colpomenia claytoniae S.M.Boo, K.M.Lee, G.Y.Cho &amp; W.Nelson, 2011
 Colpomenia durvillei (Bory de Saint-Vincent) M.E.Ramírez, 1991
@@ -526,7 +540,7 @@
 Colpomenia ramosa W.R.Taylor, 1945
 Colpomenia sinuosa (Mertens ex Roth) Derbès &amp; Solier, 1851 (espèce type)
 Colpomenia tuberculata De A.Saunders, 1898
-Selon Catalogue of Life                                  (31 oct. 2012)[3] :
+Selon Catalogue of Life                                  (31 oct. 2012) :
 Colpomenia bullosa
 Colpomenia durvillaei
 Colpomenia durvillei
@@ -538,11 +552,11 @@
 Colpomenia ramosa
 Colpomenia sinuosa
 Colpomenia tuberculata
-Selon ITIS      (31 oct. 2012)[4] :
+Selon ITIS      (31 oct. 2012) :
 Colpomenia bullosa Saund.
 Colpomenia peregrina Sauv.
 Colpomenia sinuosa (Mertens Ex Roth) Derbes &amp; Solier
-Selon NCBI  (31 oct. 2012)[5] :
+Selon NCBI  (31 oct. 2012) :
 Colpomenia bullosa
 Colpomenia claytoniae
 Colpomenia durvillei
